--- a/examples/BookText.xlsx
+++ b/examples/BookText.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cells.cloud.family\cells.cloud-sdk-python\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B687822C-75B1-4177-B379-4177B92EB085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45AB14D-74C9-47A7-AD55-1AFC4885D176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="10" r:id="rId1"/>
     <sheet name="SDKs" sheetId="11" r:id="rId2"/>
-    <sheet name="Formats" sheetId="12" r:id="rId3"/>
+    <sheet name="RawFormatData" sheetId="12" r:id="rId3"/>
+    <sheet name="Blank" sheetId="14" r:id="rId4"/>
+    <sheet name="Format" sheetId="13" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Name_2">#REF!</definedName>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="98">
   <si>
     <t xml:space="preserve">   Hi,     RoY   Wang.  hellow  word!         
 </t>
@@ -332,6 +334,9 @@
   <si>
     <t xml:space="preserve">   Hi,     Aspose Cells.  hellow  word!         
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi,                Aspose.Cells Cloud   welcomes you    !      !                         </t>
   </si>
 </sst>
 </file>
@@ -400,7 +405,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -423,6 +428,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD1D9E0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD1D9E0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD1D9E0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD1D9E0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD1D9E0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD1D9E0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD1D9E0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD1D9E0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD1D9E0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD1D9E0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD1D9E0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD1D9E0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD1D9E0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD1D9E0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD1D9E0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD1D9E0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD1D9E0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD1D9E0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD1D9E0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD1D9E0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -433,7 +534,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -463,6 +564,45 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
@@ -470,10 +610,220 @@
     <cellStyle name="Currency" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Currency [0]" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Hyperlink" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF6F8FA"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFD1D9E0"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color rgb="FFD1D9E0"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFD1D9E0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF6F8FA"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFD1D9E0"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFD1D9E0"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFD1D9E0"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFD1D9E0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF6F8FA"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFD1D9E0"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFD1D9E0"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFD1D9E0"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFD1D9E0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF6F8FA"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFD1D9E0"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFD1D9E0"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFD1D9E0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FFD1D9E0"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFD1D9E0"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFD1D9E0"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFD1D9E0"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFD1D9E0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FFD1D9E0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FFD1D9E0"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFD1D9E0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -484,6 +834,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{398F26B2-AE5D-4B2D-8834-4DE87B2E3C43}" name="表1" displayName="表1" ref="A2:D44" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A2:D44" xr:uid="{398F26B2-AE5D-4B2D-8834-4DE87B2E3C43}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{C5EE9BF5-01E5-44E5-8FC5-93876D92E565}" name="Format" dataDxfId="3" dataCellStyle="Hyperlink"/>
+    <tableColumn id="2" xr3:uid="{9C861ED4-F24E-47B6-B5C2-3151DE6E72A3}" name="Description" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{A0672CFF-952D-4279-8E83-1BC68C57EB10}" name="Load" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{AD0F1B46-7CCA-47A8-85DA-DA33B528E492}" name="Save" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -773,15 +1136,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2036091A-1B06-4FA8-8B01-7CDD0E466B74}">
-  <dimension ref="D4:F4"/>
+  <dimension ref="D4:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="4" spans="4:6" ht="225">
+    <row r="4" spans="4:16" ht="225">
       <c r="D4" s="1" t="s">
         <v>96</v>
       </c>
@@ -789,7 +1152,21 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="4:16">
+      <c r="J6" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J6:P6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -865,620 +1242,1323 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D2C4DD6-AAA4-4047-B9C0-2794487807E2}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="2" width="53.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:4" ht="18" thickBot="1">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:5" ht="18" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" thickBot="1">
+    <row r="3" spans="1:5" ht="18" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="C3" s="9"/>
       <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="18" thickBot="1">
-      <c r="A4" s="6" t="s">
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" thickBot="1">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" thickBot="1">
+      <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18" thickBot="1">
-      <c r="A5" s="4" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" thickBot="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" ht="18" thickBot="1">
+      <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18" thickBot="1">
-      <c r="A6" s="6" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" thickBot="1">
+      <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18" thickBot="1">
-      <c r="A7" s="4" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" thickBot="1">
+      <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18" thickBot="1">
-      <c r="A8" s="6" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" thickBot="1">
+      <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18" thickBot="1">
-      <c r="A9" s="4" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" thickBot="1">
+      <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18" thickBot="1">
-      <c r="A10" s="6" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" thickBot="1">
+      <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18" thickBot="1">
-      <c r="A11" s="4" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" thickBot="1">
+      <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="18" thickBot="1">
-      <c r="A12" s="6" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" thickBot="1">
+      <c r="A14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18" thickBot="1">
-      <c r="A13" s="4" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" thickBot="1">
+      <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18" thickBot="1">
-      <c r="A14" s="6" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" thickBot="1">
+      <c r="A16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B16" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="18" thickBot="1">
-      <c r="A15" s="4" t="s">
+      <c r="C16" s="10"/>
+      <c r="D16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18" thickBot="1">
+      <c r="A17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="18" thickBot="1">
-      <c r="A16" s="6" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18" thickBot="1">
+      <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B18" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="18" thickBot="1">
-      <c r="A17" s="4" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18" thickBot="1">
+      <c r="A19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B19" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" ht="18" thickBot="1">
-      <c r="A18" s="6" t="s">
+      <c r="C19" s="9"/>
+      <c r="D19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" ht="18" thickBot="1">
+      <c r="A20" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B20" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="18" thickBot="1">
-      <c r="A19" s="4" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18" thickBot="1">
+      <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B21" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="18" thickBot="1">
-      <c r="A20" s="6" t="s">
+      <c r="C21" s="9"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18" thickBot="1">
+      <c r="A22" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B22" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18" thickBot="1">
-      <c r="A21" s="4" t="s">
+      <c r="C22" s="10"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18" thickBot="1">
+      <c r="A23" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B23" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="18" thickBot="1">
-      <c r="A22" s="6" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18" thickBot="1">
+      <c r="A24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B24" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="18" thickBot="1">
-      <c r="A23" s="4" t="s">
+      <c r="C24" s="10"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18" thickBot="1">
+      <c r="A25" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B25" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="18" thickBot="1">
-      <c r="A24" s="6" t="s">
+      <c r="C25" s="9"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="18" thickBot="1">
+      <c r="A26" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B26" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="18" thickBot="1">
-      <c r="A25" s="4" t="s">
+      <c r="C26" s="10"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18" thickBot="1">
+      <c r="A27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B27" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="18" thickBot="1">
-      <c r="A26" s="6" t="s">
+      <c r="C27" s="9"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18" thickBot="1">
+      <c r="A28" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B28" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="18" thickBot="1">
-      <c r="A27" s="4" t="s">
+      <c r="C28" s="10"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18" thickBot="1">
+      <c r="A29" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B29" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="18" thickBot="1">
-      <c r="A28" s="6" t="s">
+      <c r="C29" s="9"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18" thickBot="1">
+      <c r="A30" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B30" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="18" thickBot="1">
-      <c r="A29" s="4" t="s">
+      <c r="C30" s="10"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="18" thickBot="1">
+      <c r="A31" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B31" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="18" thickBot="1">
-      <c r="A30" s="6" t="s">
+      <c r="C31" s="9"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="18" thickBot="1">
+      <c r="A32" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B32" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="18" thickBot="1">
-      <c r="A31" s="4" t="s">
+      <c r="C32" s="10"/>
+      <c r="D32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18" thickBot="1">
+      <c r="A33" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B33" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="18" thickBot="1">
-      <c r="A32" s="6" t="s">
+      <c r="C33" s="9"/>
+      <c r="D33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="18" thickBot="1">
+      <c r="A34" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B34" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="18" thickBot="1">
-      <c r="A33" s="4" t="s">
+      <c r="C34" s="10"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="18" thickBot="1">
+      <c r="A35" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B35" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="18" thickBot="1">
-      <c r="A34" s="6" t="s">
+      <c r="C35" s="9"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="18" thickBot="1">
+      <c r="A36" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B36" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="18" thickBot="1">
-      <c r="A35" s="4" t="s">
+      <c r="C36" s="10"/>
+      <c r="D36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="18" thickBot="1">
+      <c r="A37" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B37" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="18" thickBot="1">
-      <c r="A36" s="6" t="s">
+      <c r="C37" s="9"/>
+      <c r="D37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="18" thickBot="1">
+      <c r="A38" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B38" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="18" thickBot="1">
-      <c r="A37" s="4" t="s">
+      <c r="C38" s="10"/>
+      <c r="D38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="18" thickBot="1">
+      <c r="A39" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B39" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="18" thickBot="1">
-      <c r="A38" s="6" t="s">
+      <c r="C39" s="9"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="18" thickBot="1">
+      <c r="A40" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B40" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="18" thickBot="1">
-      <c r="A39" s="4" t="s">
+      <c r="C40" s="10"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="18" thickBot="1">
+      <c r="A41" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B41" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="18" thickBot="1">
-      <c r="A40" s="6" t="s">
+      <c r="C41" s="9"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="18" thickBot="1">
+      <c r="A42" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B42" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="18" thickBot="1">
-      <c r="A41" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="18" thickBot="1">
-      <c r="A42" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="18" thickBot="1">
+      <c r="C42" s="10"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="18" thickBot="1">
       <c r="A43" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B43" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="18" thickBot="1">
+      <c r="A44" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="18" thickBot="1">
+      <c r="A45" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="18" thickBot="1">
-      <c r="A44" s="6" t="s">
+      <c r="C45" s="9"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="18" thickBot="1">
+      <c r="A46" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B46" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7" t="s">
+      <c r="C46" s="10"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="https://docs.fileformat.com/spreadsheet/xls/" xr:uid="{ACACF9F6-9886-46B7-8DAE-52E3635768F1}"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://docs.fileformat.com/spreadsheet/xlsx/" xr:uid="{52A0B794-A73F-46F1-AD77-301B37E2AA84}"/>
-    <hyperlink ref="A5" r:id="rId3" display="https://docs.fileformat.com/spreadsheet/xlsb/" xr:uid="{18C30D71-9E3E-4545-859E-18935110ECC8}"/>
-    <hyperlink ref="A6" r:id="rId4" display="https://docs.fileformat.com/spreadsheet/xlsm/" xr:uid="{E4EF06C5-16FF-4F01-B3C7-00E80EB9E5DF}"/>
-    <hyperlink ref="A7" r:id="rId5" display="https://docs.fileformat.com/spreadsheet/xlt/" xr:uid="{9767606B-025A-402A-9798-8C5B9759EF3E}"/>
-    <hyperlink ref="A8" r:id="rId6" display="https://docs.fileformat.com/spreadsheet/xltx/" xr:uid="{DFCDA335-A748-4D83-8F16-CF57DD970DE6}"/>
-    <hyperlink ref="A9" r:id="rId7" display="https://docs.fileformat.com/spreadsheet/xltm/" xr:uid="{19F6E330-A014-409D-8943-51FD6BD5695B}"/>
-    <hyperlink ref="A10" r:id="rId8" display="https://docs.fileformat.com/spreadsheet/xlam/" xr:uid="{F8D8D1D6-33B4-42C2-8206-EA2F782E36AF}"/>
-    <hyperlink ref="A11" r:id="rId9" display="https://docs.fileformat.com/spreadsheet/csv/" xr:uid="{25D9F383-E9C3-45C7-A6F1-BC2FA9C2C7B1}"/>
-    <hyperlink ref="A12" r:id="rId10" display="https://docs.fileformat.com/spreadsheet/tsv/" xr:uid="{25BDDE27-B2BA-4F37-8878-7DCA3B262AA4}"/>
-    <hyperlink ref="A13" r:id="rId11" display="https://docs.fileformat.com/word-processing/txt/" xr:uid="{DA82C423-CA9D-4D33-9CB7-F0D2FF1AD755}"/>
-    <hyperlink ref="A14" r:id="rId12" display="https://docs.fileformat.com/web/html/" xr:uid="{51671756-2EFF-474E-9886-F3DAC016B881}"/>
-    <hyperlink ref="A15" r:id="rId13" display="https://docs.fileformat.com/web/mhtml/" xr:uid="{B5F2DE40-20DA-415E-A237-16B694059247}"/>
-    <hyperlink ref="A16" r:id="rId14" display="https://docs.fileformat.com/spreadsheet/ods/" xr:uid="{80D69553-C491-4375-B364-8101C1CBF753}"/>
-    <hyperlink ref="A17" r:id="rId15" display="https://docs.fileformat.com/spreadsheet/numbers/" xr:uid="{7663F19E-2574-4965-87FD-A7B62B1BD304}"/>
-    <hyperlink ref="A18" r:id="rId16" display="https://docs.fileformat.com/web/json/" xr:uid="{3DFFA4CC-3827-49A0-B49C-84342C0BED08}"/>
-    <hyperlink ref="A19" r:id="rId17" display="https://docs.fileformat.com/spreadsheet/dif/" xr:uid="{BB7231F1-3B4B-46CD-8A26-7CC0E824440C}"/>
-    <hyperlink ref="A20" r:id="rId18" display="https://docs.fileformat.com/pdf/" xr:uid="{D8B5222B-4AC7-4D74-A30C-41902185003C}"/>
-    <hyperlink ref="A21" r:id="rId19" display="https://docs.fileformat.com/page-description-language/xps/" xr:uid="{5FED0934-3A78-4E25-AC06-E3CCAEE12601}"/>
-    <hyperlink ref="A22" r:id="rId20" display="https://docs.fileformat.com/page-description-language/svg/" xr:uid="{53D5D20C-1F4B-4A41-99EC-A719EB1CF5F7}"/>
-    <hyperlink ref="A23" r:id="rId21" display="https://docs.fileformat.com/image/tiff/" xr:uid="{1C12A1C9-3398-495C-9701-0B3036D5ECBC}"/>
-    <hyperlink ref="A24" r:id="rId22" display="https://docs.fileformat.com/image/png/" xr:uid="{9BBFBE50-024C-4D27-B66E-46C7123C72AA}"/>
-    <hyperlink ref="A25" r:id="rId23" display="https://docs.fileformat.com/image/bmp/" xr:uid="{3AB75B5A-7675-4587-BAB2-09E157EF974E}"/>
-    <hyperlink ref="A26" r:id="rId24" display="https://docs.fileformat.com/image/emf/" xr:uid="{A1909913-6A78-404E-8BAA-F9B8656EEB4C}"/>
-    <hyperlink ref="A27" r:id="rId25" display="https://docs.fileformat.com/image/jpeg/" xr:uid="{7F89840E-4CA3-455A-B381-9D1220E9B4E2}"/>
-    <hyperlink ref="A28" r:id="rId26" display="https://docs.fileformat.com/image/gif/" xr:uid="{38738780-38E4-4BD6-A90F-44F79342E980}"/>
-    <hyperlink ref="A29" r:id="rId27" display="https://docs.fileformat.com/word-processing/md/" xr:uid="{90813435-CCDD-4036-A4B6-3DA486E5EBD5}"/>
-    <hyperlink ref="A30" r:id="rId28" display="https://docs.fileformat.com/spreadsheet/sxc/" xr:uid="{D603C317-4916-46E4-881E-6D0A684BC57E}"/>
-    <hyperlink ref="A31" r:id="rId29" display="https://docs.fileformat.com/spreadsheet/fods/" xr:uid="{07532D5E-64C2-452E-BF6E-63F610C12EDC}"/>
-    <hyperlink ref="A32" r:id="rId30" display="https://docs.fileformat.com/word-processing/docx/" xr:uid="{828B2417-E889-46C3-B68C-089E1619B76E}"/>
-    <hyperlink ref="A33" r:id="rId31" display="https://docs.fileformat.com/presentation/pptx/" xr:uid="{BAF72D9E-CCFA-41E6-B01A-1B420A04704D}"/>
-    <hyperlink ref="A34" r:id="rId32" display="https://docs.fileformat.com/spreadsheet/ots/" xr:uid="{39665641-A222-4EA9-AB53-2E2E37C71854}"/>
-    <hyperlink ref="A35" r:id="rId33" display="https://docs.fileformat.com/web/xml/" xr:uid="{5CD85C78-8165-4472-9EE5-8E2E105F7108}"/>
-    <hyperlink ref="A36" r:id="rId34" display="https://docs.fileformat.com/web/htm/" xr:uid="{A5DF9B7E-9E99-4029-A237-5EC274361197}"/>
-    <hyperlink ref="A37" r:id="rId35" display="https://docs.fileformat.com/image/tiff/" xr:uid="{5E6EB378-E9D6-484B-931F-4ACD8F780E6C}"/>
-    <hyperlink ref="A38" r:id="rId36" display="https://docs.fileformat.com/image/wmf/" xr:uid="{4E772985-C2FB-4F1F-88F7-05FEC0A63139}"/>
-    <hyperlink ref="A39" r:id="rId37" display="https://docs.fileformat.com/page-description-language/pcl/" xr:uid="{A877E546-2D5A-4763-81C4-5C8DAF814EA1}"/>
-    <hyperlink ref="A40" r:id="rId38" display="https://docs.fileformat.com/ebook/azw3/" xr:uid="{C19A09DD-D28A-4FEC-BEEF-82EF48786F47}"/>
-    <hyperlink ref="A41" r:id="rId39" display="https://docs.fileformat.com/ebook/epub/" xr:uid="{2722B902-5900-4B16-950E-4118C52DCD56}"/>
-    <hyperlink ref="A42" r:id="rId40" display="https://docs.fileformat.com/ebook/epub/" xr:uid="{84483C3F-0CA0-4371-90B2-37E9C21FF98B}"/>
-    <hyperlink ref="A43" r:id="rId41" display="https://docs.fileformat.com/database/dbf/" xr:uid="{FB19B16B-5435-4FBE-8173-C90FD1F795E8}"/>
-    <hyperlink ref="A44" r:id="rId42" display="https://docs.fileformat.com/web/xhtml/" xr:uid="{D2CE21AA-9FDD-44F1-B07B-06E5F6D65A19}"/>
+    <hyperlink ref="A5" r:id="rId2" display="https://docs.fileformat.com/spreadsheet/xlsx/" xr:uid="{52A0B794-A73F-46F1-AD77-301B37E2AA84}"/>
+    <hyperlink ref="A7" r:id="rId3" display="https://docs.fileformat.com/spreadsheet/xlsb/" xr:uid="{18C30D71-9E3E-4545-859E-18935110ECC8}"/>
+    <hyperlink ref="A8" r:id="rId4" display="https://docs.fileformat.com/spreadsheet/xlsm/" xr:uid="{E4EF06C5-16FF-4F01-B3C7-00E80EB9E5DF}"/>
+    <hyperlink ref="A9" r:id="rId5" display="https://docs.fileformat.com/spreadsheet/xlt/" xr:uid="{9767606B-025A-402A-9798-8C5B9759EF3E}"/>
+    <hyperlink ref="A10" r:id="rId6" display="https://docs.fileformat.com/spreadsheet/xltx/" xr:uid="{DFCDA335-A748-4D83-8F16-CF57DD970DE6}"/>
+    <hyperlink ref="A11" r:id="rId7" display="https://docs.fileformat.com/spreadsheet/xltm/" xr:uid="{19F6E330-A014-409D-8943-51FD6BD5695B}"/>
+    <hyperlink ref="A12" r:id="rId8" display="https://docs.fileformat.com/spreadsheet/xlam/" xr:uid="{F8D8D1D6-33B4-42C2-8206-EA2F782E36AF}"/>
+    <hyperlink ref="A13" r:id="rId9" display="https://docs.fileformat.com/spreadsheet/csv/" xr:uid="{25D9F383-E9C3-45C7-A6F1-BC2FA9C2C7B1}"/>
+    <hyperlink ref="A14" r:id="rId10" display="https://docs.fileformat.com/spreadsheet/tsv/" xr:uid="{25BDDE27-B2BA-4F37-8878-7DCA3B262AA4}"/>
+    <hyperlink ref="A15" r:id="rId11" display="https://docs.fileformat.com/word-processing/txt/" xr:uid="{DA82C423-CA9D-4D33-9CB7-F0D2FF1AD755}"/>
+    <hyperlink ref="A16" r:id="rId12" display="https://docs.fileformat.com/web/html/" xr:uid="{51671756-2EFF-474E-9886-F3DAC016B881}"/>
+    <hyperlink ref="A17" r:id="rId13" display="https://docs.fileformat.com/web/mhtml/" xr:uid="{B5F2DE40-20DA-415E-A237-16B694059247}"/>
+    <hyperlink ref="A18" r:id="rId14" display="https://docs.fileformat.com/spreadsheet/ods/" xr:uid="{80D69553-C491-4375-B364-8101C1CBF753}"/>
+    <hyperlink ref="A19" r:id="rId15" display="https://docs.fileformat.com/spreadsheet/numbers/" xr:uid="{7663F19E-2574-4965-87FD-A7B62B1BD304}"/>
+    <hyperlink ref="A20" r:id="rId16" display="https://docs.fileformat.com/web/json/" xr:uid="{3DFFA4CC-3827-49A0-B49C-84342C0BED08}"/>
+    <hyperlink ref="A21" r:id="rId17" display="https://docs.fileformat.com/spreadsheet/dif/" xr:uid="{BB7231F1-3B4B-46CD-8A26-7CC0E824440C}"/>
+    <hyperlink ref="A22" r:id="rId18" display="https://docs.fileformat.com/pdf/" xr:uid="{D8B5222B-4AC7-4D74-A30C-41902185003C}"/>
+    <hyperlink ref="A23" r:id="rId19" display="https://docs.fileformat.com/page-description-language/xps/" xr:uid="{5FED0934-3A78-4E25-AC06-E3CCAEE12601}"/>
+    <hyperlink ref="A24" r:id="rId20" display="https://docs.fileformat.com/page-description-language/svg/" xr:uid="{53D5D20C-1F4B-4A41-99EC-A719EB1CF5F7}"/>
+    <hyperlink ref="A25" r:id="rId21" display="https://docs.fileformat.com/image/tiff/" xr:uid="{1C12A1C9-3398-495C-9701-0B3036D5ECBC}"/>
+    <hyperlink ref="A26" r:id="rId22" display="https://docs.fileformat.com/image/png/" xr:uid="{9BBFBE50-024C-4D27-B66E-46C7123C72AA}"/>
+    <hyperlink ref="A27" r:id="rId23" display="https://docs.fileformat.com/image/bmp/" xr:uid="{3AB75B5A-7675-4587-BAB2-09E157EF974E}"/>
+    <hyperlink ref="A28" r:id="rId24" display="https://docs.fileformat.com/image/emf/" xr:uid="{A1909913-6A78-404E-8BAA-F9B8656EEB4C}"/>
+    <hyperlink ref="A29" r:id="rId25" display="https://docs.fileformat.com/image/jpeg/" xr:uid="{7F89840E-4CA3-455A-B381-9D1220E9B4E2}"/>
+    <hyperlink ref="A30" r:id="rId26" display="https://docs.fileformat.com/image/gif/" xr:uid="{38738780-38E4-4BD6-A90F-44F79342E980}"/>
+    <hyperlink ref="A31" r:id="rId27" display="https://docs.fileformat.com/word-processing/md/" xr:uid="{90813435-CCDD-4036-A4B6-3DA486E5EBD5}"/>
+    <hyperlink ref="A32" r:id="rId28" display="https://docs.fileformat.com/spreadsheet/sxc/" xr:uid="{D603C317-4916-46E4-881E-6D0A684BC57E}"/>
+    <hyperlink ref="A33" r:id="rId29" display="https://docs.fileformat.com/spreadsheet/fods/" xr:uid="{07532D5E-64C2-452E-BF6E-63F610C12EDC}"/>
+    <hyperlink ref="A34" r:id="rId30" display="https://docs.fileformat.com/word-processing/docx/" xr:uid="{828B2417-E889-46C3-B68C-089E1619B76E}"/>
+    <hyperlink ref="A35" r:id="rId31" display="https://docs.fileformat.com/presentation/pptx/" xr:uid="{BAF72D9E-CCFA-41E6-B01A-1B420A04704D}"/>
+    <hyperlink ref="A36" r:id="rId32" display="https://docs.fileformat.com/spreadsheet/ots/" xr:uid="{39665641-A222-4EA9-AB53-2E2E37C71854}"/>
+    <hyperlink ref="A37" r:id="rId33" display="https://docs.fileformat.com/web/xml/" xr:uid="{5CD85C78-8165-4472-9EE5-8E2E105F7108}"/>
+    <hyperlink ref="A38" r:id="rId34" display="https://docs.fileformat.com/web/htm/" xr:uid="{A5DF9B7E-9E99-4029-A237-5EC274361197}"/>
+    <hyperlink ref="A39" r:id="rId35" display="https://docs.fileformat.com/image/tiff/" xr:uid="{5E6EB378-E9D6-484B-931F-4ACD8F780E6C}"/>
+    <hyperlink ref="A40" r:id="rId36" display="https://docs.fileformat.com/image/wmf/" xr:uid="{4E772985-C2FB-4F1F-88F7-05FEC0A63139}"/>
+    <hyperlink ref="A41" r:id="rId37" display="https://docs.fileformat.com/page-description-language/pcl/" xr:uid="{A877E546-2D5A-4763-81C4-5C8DAF814EA1}"/>
+    <hyperlink ref="A42" r:id="rId38" display="https://docs.fileformat.com/ebook/azw3/" xr:uid="{C19A09DD-D28A-4FEC-BEEF-82EF48786F47}"/>
+    <hyperlink ref="A43" r:id="rId39" display="https://docs.fileformat.com/ebook/epub/" xr:uid="{2722B902-5900-4B16-950E-4118C52DCD56}"/>
+    <hyperlink ref="A44" r:id="rId40" display="https://docs.fileformat.com/ebook/epub/" xr:uid="{84483C3F-0CA0-4371-90B2-37E9C21FF98B}"/>
+    <hyperlink ref="A45" r:id="rId41" display="https://docs.fileformat.com/database/dbf/" xr:uid="{FB19B16B-5435-4FBE-8173-C90FD1F795E8}"/>
+    <hyperlink ref="A46" r:id="rId42" display="https://docs.fileformat.com/web/xhtml/" xr:uid="{D2CE21AA-9FDD-44F1-B07B-06E5F6D65A19}"/>
+    <hyperlink ref="A4" r:id="rId43" display="https://docs.fileformat.com/spreadsheet/xls/" xr:uid="{30BBD4E8-0D34-4A07-9456-99A7D9CDE134}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0C88BA-98B2-4FD4-8ACD-5DC03F8E0944}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCB97A3-2C26-4389-8789-5602194E36D3}">
+  <dimension ref="A2:D44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="188" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" ht="18" thickBot="1">
+      <c r="A2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" thickBot="1">
+      <c r="A3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" thickBot="1">
+      <c r="A4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" thickBot="1">
+      <c r="A5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" thickBot="1">
+      <c r="A6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" thickBot="1">
+      <c r="A7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" thickBot="1">
+      <c r="A8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18" thickBot="1">
+      <c r="A9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18" thickBot="1">
+      <c r="A10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18" thickBot="1">
+      <c r="A11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18" thickBot="1">
+      <c r="A12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18" thickBot="1">
+      <c r="A13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18" thickBot="1">
+      <c r="A14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18" thickBot="1">
+      <c r="A15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18" thickBot="1">
+      <c r="A16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18" thickBot="1">
+      <c r="A17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="1:4" ht="18" thickBot="1">
+      <c r="A18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18" thickBot="1">
+      <c r="A19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18" thickBot="1">
+      <c r="A20" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18" thickBot="1">
+      <c r="A21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18" thickBot="1">
+      <c r="A22" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18" thickBot="1">
+      <c r="A23" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18" thickBot="1">
+      <c r="A24" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18" thickBot="1">
+      <c r="A25" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18" thickBot="1">
+      <c r="A26" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18" thickBot="1">
+      <c r="A27" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18" thickBot="1">
+      <c r="A28" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A29" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18" thickBot="1">
+      <c r="A30" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18" thickBot="1">
+      <c r="A31" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18" thickBot="1">
+      <c r="A32" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18" thickBot="1">
+      <c r="A33" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18" thickBot="1">
+      <c r="A34" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18" thickBot="1">
+      <c r="A35" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18" thickBot="1">
+      <c r="A36" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="18" thickBot="1">
+      <c r="A37" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18" thickBot="1">
+      <c r="A38" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18" thickBot="1">
+      <c r="A39" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18" thickBot="1">
+      <c r="A40" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="18" thickBot="1">
+      <c r="A41" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="18" thickBot="1">
+      <c r="A42" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="18" thickBot="1">
+      <c r="A43" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17.25">
+      <c r="A44" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="21"/>
+      <c r="D44" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="https://docs.fileformat.com/spreadsheet/xls/" xr:uid="{DAB0232A-86B4-4D30-86E2-88FF44E54EFD}"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://docs.fileformat.com/spreadsheet/xlsx/" xr:uid="{FDB7BB58-B3A9-49E4-B86E-80C273254481}"/>
+    <hyperlink ref="A5" r:id="rId3" display="https://docs.fileformat.com/spreadsheet/xlsb/" xr:uid="{5B6D38C7-1EEC-421B-A276-25861CE6CB4C}"/>
+    <hyperlink ref="A6" r:id="rId4" display="https://docs.fileformat.com/spreadsheet/xlsm/" xr:uid="{0F3BFEC0-7473-46F0-B2F1-4427D0684752}"/>
+    <hyperlink ref="A7" r:id="rId5" display="https://docs.fileformat.com/spreadsheet/xlt/" xr:uid="{1A25CF98-3A9E-48FC-8967-271C9E0F82A8}"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://docs.fileformat.com/spreadsheet/xltx/" xr:uid="{F057970B-FF71-4917-8E81-72C157DBAEC6}"/>
+    <hyperlink ref="A9" r:id="rId7" display="https://docs.fileformat.com/spreadsheet/xltm/" xr:uid="{1DB25AC6-9579-47FC-AC11-274F9E587C06}"/>
+    <hyperlink ref="A10" r:id="rId8" display="https://docs.fileformat.com/spreadsheet/xlam/" xr:uid="{77FE1DDF-8E10-4051-9342-6D103C6F7B67}"/>
+    <hyperlink ref="A11" r:id="rId9" display="https://docs.fileformat.com/spreadsheet/csv/" xr:uid="{06E35145-A263-4306-ADC9-2ECC52BD314F}"/>
+    <hyperlink ref="A12" r:id="rId10" display="https://docs.fileformat.com/spreadsheet/tsv/" xr:uid="{3572E240-5FB5-4B8E-BCDE-9220508E60DF}"/>
+    <hyperlink ref="A13" r:id="rId11" display="https://docs.fileformat.com/word-processing/txt/" xr:uid="{3CF5FB0A-F1C9-4EF8-92CF-B61C06176766}"/>
+    <hyperlink ref="A14" r:id="rId12" display="https://docs.fileformat.com/web/html/" xr:uid="{24C1C753-3E30-411E-BDA5-862C45C94A32}"/>
+    <hyperlink ref="A15" r:id="rId13" display="https://docs.fileformat.com/web/mhtml/" xr:uid="{696ADDA7-4AAB-4CB4-A54A-B8965395494A}"/>
+    <hyperlink ref="A16" r:id="rId14" display="https://docs.fileformat.com/spreadsheet/ods/" xr:uid="{209900DC-28DF-4828-A306-15FC77E22EC8}"/>
+    <hyperlink ref="A17" r:id="rId15" display="https://docs.fileformat.com/spreadsheet/numbers/" xr:uid="{9A97F7BC-C20F-4F49-B5BA-BC6554BEE56C}"/>
+    <hyperlink ref="A18" r:id="rId16" display="https://docs.fileformat.com/web/json/" xr:uid="{A76E97F2-14CC-4FC6-ABC9-1D3B84564701}"/>
+    <hyperlink ref="A19" r:id="rId17" display="https://docs.fileformat.com/spreadsheet/dif/" xr:uid="{FD0051B4-355B-4EBD-8CF5-DEA296EEF5BE}"/>
+    <hyperlink ref="A20" r:id="rId18" display="https://docs.fileformat.com/pdf/" xr:uid="{57F48D90-9FEA-404B-9CF6-CC2039D32F22}"/>
+    <hyperlink ref="A21" r:id="rId19" display="https://docs.fileformat.com/page-description-language/xps/" xr:uid="{D0A9D2CD-87B4-4718-9EAE-6659752F4F4E}"/>
+    <hyperlink ref="A22" r:id="rId20" display="https://docs.fileformat.com/page-description-language/svg/" xr:uid="{5C65FB98-0F7B-456D-AE6B-A38C2EFA4C4F}"/>
+    <hyperlink ref="A23" r:id="rId21" display="https://docs.fileformat.com/image/tiff/" xr:uid="{7CF138E0-E3A5-42A5-8F48-31AE8B5B5813}"/>
+    <hyperlink ref="A24" r:id="rId22" display="https://docs.fileformat.com/image/png/" xr:uid="{F5BFB8D1-F1BE-4098-9D86-DF0FDCA29008}"/>
+    <hyperlink ref="A25" r:id="rId23" display="https://docs.fileformat.com/image/bmp/" xr:uid="{B8BB3C47-FF60-49D4-8C05-BEC220D3E481}"/>
+    <hyperlink ref="A26" r:id="rId24" display="https://docs.fileformat.com/image/emf/" xr:uid="{CE1E0DED-C70B-4347-9FC1-3E36FAB63BFC}"/>
+    <hyperlink ref="A27" r:id="rId25" display="https://docs.fileformat.com/image/jpeg/" xr:uid="{FCEA4446-8348-4C40-8B59-CB2F4E03560D}"/>
+    <hyperlink ref="A28" r:id="rId26" display="https://docs.fileformat.com/image/gif/" xr:uid="{A571694E-DE61-4101-B512-CB8E28018361}"/>
+    <hyperlink ref="A29" r:id="rId27" display="https://docs.fileformat.com/word-processing/md/" xr:uid="{535E3A24-D60A-4875-A980-DE852FD2DFF4}"/>
+    <hyperlink ref="A30" r:id="rId28" display="https://docs.fileformat.com/spreadsheet/sxc/" xr:uid="{BCA4ECE4-80C0-4248-920D-3F3DAC5AC7EF}"/>
+    <hyperlink ref="A31" r:id="rId29" display="https://docs.fileformat.com/spreadsheet/fods/" xr:uid="{99F4E3E5-A018-4335-B5CF-474DB5C2E362}"/>
+    <hyperlink ref="A32" r:id="rId30" display="https://docs.fileformat.com/word-processing/docx/" xr:uid="{BE9A2D76-EE45-4B32-85F1-74082B48D5CD}"/>
+    <hyperlink ref="A33" r:id="rId31" display="https://docs.fileformat.com/presentation/pptx/" xr:uid="{2AD3536A-20DF-4BC5-96A7-F3CDC09F2006}"/>
+    <hyperlink ref="A34" r:id="rId32" display="https://docs.fileformat.com/spreadsheet/ots/" xr:uid="{033026C1-CF96-476A-9BF1-2D328F7DD0BD}"/>
+    <hyperlink ref="A35" r:id="rId33" display="https://docs.fileformat.com/web/xml/" xr:uid="{370DE0CA-120E-493D-87AE-8AED23FEA9D6}"/>
+    <hyperlink ref="A36" r:id="rId34" display="https://docs.fileformat.com/web/htm/" xr:uid="{95C98B5E-75A3-41BB-863C-1F6DADD874D6}"/>
+    <hyperlink ref="A37" r:id="rId35" display="https://docs.fileformat.com/image/tiff/" xr:uid="{60D00C73-6C1E-4A01-8870-F5ED78E8BA39}"/>
+    <hyperlink ref="A38" r:id="rId36" display="https://docs.fileformat.com/image/wmf/" xr:uid="{87A9D441-B3E9-46AA-9BD5-484237A279C4}"/>
+    <hyperlink ref="A39" r:id="rId37" display="https://docs.fileformat.com/page-description-language/pcl/" xr:uid="{402D4E39-1599-437B-877D-2FED34AECA6A}"/>
+    <hyperlink ref="A40" r:id="rId38" display="https://docs.fileformat.com/ebook/azw3/" xr:uid="{19F0B1BD-F29D-4C4D-87E5-72EF626FC98E}"/>
+    <hyperlink ref="A41" r:id="rId39" display="https://docs.fileformat.com/ebook/epub/" xr:uid="{32D2D216-4292-4A62-8413-4392EC370CD9}"/>
+    <hyperlink ref="A42" r:id="rId40" display="https://docs.fileformat.com/ebook/epub/" xr:uid="{DAAB951E-812C-4657-95B4-F3B11B1F340A}"/>
+    <hyperlink ref="A43" r:id="rId41" display="https://docs.fileformat.com/database/dbf/" xr:uid="{DA192E4D-52E4-4643-95D9-68E338B4C444}"/>
+    <hyperlink ref="A44" r:id="rId42" display="https://docs.fileformat.com/web/xhtml/" xr:uid="{F077A7AA-462B-4C2C-B75F-9EDD87D402AB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId43"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/examples/BookText.xlsx
+++ b/examples/BookText.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29413"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cells.cloud.family\cells.cloud-sdk-python\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45AB14D-74C9-47A7-AD55-1AFC4885D176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EBF216-6E4D-4C22-ADBD-3B8EC3F16840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="10" r:id="rId1"/>
-    <sheet name="SDKs" sheetId="11" r:id="rId2"/>
-    <sheet name="RawFormatData" sheetId="12" r:id="rId3"/>
-    <sheet name="Blank" sheetId="14" r:id="rId4"/>
-    <sheet name="Format" sheetId="13" r:id="rId5"/>
+    <sheet name="HumanResources" sheetId="15" r:id="rId2"/>
+    <sheet name="SDKs" sheetId="11" r:id="rId3"/>
+    <sheet name="RawFormatData" sheetId="12" r:id="rId4"/>
+    <sheet name="Blank" sheetId="14" r:id="rId5"/>
+    <sheet name="Format" sheetId="13" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="Name_2">#REF!</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="131">
   <si>
     <t xml:space="preserve">   Hi,     RoY   Wang.  hellow  word!         
 </t>
@@ -337,6 +338,106 @@
   </si>
   <si>
     <t xml:space="preserve">Hi,                Aspose.Cells Cloud   welcomes you    !      !                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi,                Aspose.Cells Cloud   welcomes you    !      !                         
+</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Annie Hall</t>
+  </si>
+  <si>
+    <t>Donnie Darko</t>
+  </si>
+  <si>
+    <t>Willy Wonka</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>General Manager Assistant</t>
+  </si>
+  <si>
+    <t>Commercial   Manager</t>
+  </si>
+  <si>
+    <t>Marketing   Director</t>
+  </si>
+  <si>
+    <t>Purchasing  Director</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Chief Executive Officer</t>
+  </si>
+  <si>
+    <t>Wednesday  Add;Chief Executive Officer</t>
+  </si>
+  <si>
+    <t>Scarlett     O'Hara;Marketing   Director</t>
+  </si>
+  <si>
+    <t>Lisbeth  Salander;Executive  Director</t>
+  </si>
+  <si>
+    <t>Ellen Ripley;      General   Manager</t>
+  </si>
+  <si>
+    <t>Annie Hall;Commercial   Manager</t>
+  </si>
+  <si>
+    <t>Donnie Darko;General Manager Assistant</t>
+  </si>
+  <si>
+    <t>Sarah Connor;Purchasing  Director</t>
+  </si>
+  <si>
+    <t>Ace Ventura;Product  Director</t>
+  </si>
+  <si>
+    <t>Darth Vader;Sales Director Assistant</t>
+  </si>
+  <si>
+    <t>Willy Wonka;Marketing Director  Assistant</t>
+  </si>
+  <si>
+    <t>Lisbeth      Salander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Wednesday  Add                        </t>
+  </si>
+  <si>
+    <t>Darth     Vader</t>
+  </si>
+  <si>
+    <t>Marketing     Director      Assistant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ellen Ripley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Scarlett     O'Hara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Sarah    Connor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ace Ventura    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     General   Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Executive      Director</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Product  Director</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Sales      Director      Assistant</t>
   </si>
 </sst>
 </file>
@@ -534,7 +635,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -602,6 +703,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1136,10 +1240,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2036091A-1B06-4FA8-8B01-7CDD0E466B74}">
-  <dimension ref="D4:P6"/>
+  <dimension ref="D4:P12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:P6"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1163,15 +1267,181 @@
       <c r="O6" s="23"/>
       <c r="P6" s="23"/>
     </row>
+    <row r="7" spans="4:16">
+      <c r="J7" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+    </row>
+    <row r="10" spans="4:16">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="4:16">
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="4:16">
+      <c r="D12">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="J6:P6"/>
+    <mergeCell ref="J7:P7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36E46D4-F869-43BB-BCF6-AF7C486C806E}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7700EC40-302C-4CF3-84D8-CC1D43AB38CF}">
   <dimension ref="B2:B9"/>
   <sheetViews>
@@ -1240,7 +1510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D2C4DD6-AAA4-4047-B9C0-2794487807E2}">
   <dimension ref="A1:E46"/>
   <sheetViews>
@@ -1927,11 +2197,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0C88BA-98B2-4FD4-8ACD-5DC03F8E0944}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
@@ -1939,7 +2209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCB97A3-2C26-4389-8789-5602194E36D3}">
   <dimension ref="A2:D44"/>
   <sheetViews>

--- a/examples/BookText.xlsx
+++ b/examples/BookText.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cells.cloud.family\cells.cloud-sdk-python\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cells.cloud.family\cells.cloud-4.0\src\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EBF216-6E4D-4C22-ADBD-3B8EC3F16840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A282621-1C14-42D7-9093-5EA6EAAAF1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="10" r:id="rId1"/>
-    <sheet name="HumanResources" sheetId="15" r:id="rId2"/>
-    <sheet name="SDKs" sheetId="11" r:id="rId3"/>
-    <sheet name="RawFormatData" sheetId="12" r:id="rId4"/>
-    <sheet name="Blank" sheetId="14" r:id="rId5"/>
-    <sheet name="Format" sheetId="13" r:id="rId6"/>
+    <sheet name="Bikes" sheetId="16" r:id="rId2"/>
+    <sheet name="HumanResources" sheetId="15" r:id="rId3"/>
+    <sheet name="SDKs" sheetId="11" r:id="rId4"/>
+    <sheet name="RawFormatData" sheetId="12" r:id="rId5"/>
+    <sheet name="Blank" sheetId="14" r:id="rId6"/>
+    <sheet name="Format" sheetId="13" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="Name_2">#REF!</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="175">
   <si>
     <t xml:space="preserve">   Hi,     RoY   Wang.  hellow  word!         
 </t>
@@ -438,6 +439,157 @@
   </si>
   <si>
     <t xml:space="preserve">    Sales      Director      Assistant</t>
+  </si>
+  <si>
+    <t>Bike is bike.</t>
+  </si>
+  <si>
+    <t>From heritage steel commuters to UCI-level carbon racers, these 16 labels cover every rider and budget on the 2025 market.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Below are </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>16 major bicycle brands</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t xml:space="preserve"> that dominate shops and podiums in 2025, each with a one-line snapshot of what they’re best known for.</t>
+    </r>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>One-line Intro</t>
+  </si>
+  <si>
+    <t>Taiwan’s world-beater; largest bike maker on Earth, famed for stiff-yet-light alloy &amp; carbon road and MTB rigs</t>
+  </si>
+  <si>
+    <t>Also out of Taiwan; sponsors WorldTour pro-teams and builds bullet-proof alloy frames for every discipline</t>
+  </si>
+  <si>
+    <t>American premium icon; birthplace of OCLV carbon, lifetime warranty, and the Madone aero road series</t>
+  </si>
+  <si>
+    <t>California tech-heavy brand that gave the world the Stumpjumper (first production MTB) and wind-tunnel-proven Tarmac.</t>
+  </si>
+  <si>
+    <t>Shenzhen powerhouse; 10-million-bike annual capacity, carbon-fibre expert and value-priced global OEM.</t>
+  </si>
+  <si>
+    <t>China’s 1897-born heritage name; classic city bikes and now e-bikes sold in 50+ countries.</t>
+  </si>
+  <si>
+    <t>Shanghai stalwart since 1940; once made the national “standard” bike and still cranks out commuters and e-cycles</t>
+  </si>
+  <si>
+    <t>Tianjin’s 1950 legacy marque; bright-coloured Dutch-style city bikes that roll off at 1 million+ units a year.</t>
+  </si>
+  <si>
+    <t>Tianjin Fuji-ta’s house brand; high-tensile steel work-horses rated to 150 kg and priced for the masses</t>
+  </si>
+  <si>
+    <t>French sports hyper-market; B’Twin and Rockrider lines give Euro-certified performance at supermarket prices</t>
+  </si>
+  <si>
+    <t>Guangzhou 1992-born factory; entry-level to mid-range MTB and gravel bikes exported to 60+ countries</t>
+  </si>
+  <si>
+    <t>Inventor of the modern folding bike (1982); 400+ patents, folds in 15 s, global commuter favourite</t>
+  </si>
+  <si>
+    <t>Taiwan 1966 originator; stylish folders with patented 3-step lock, loved by urban rail riders</t>
+  </si>
+  <si>
+    <t>SAVA</t>
+  </si>
+  <si>
+    <t>German-design team, Chinese carbon plant; ultralight road and gravel rigs under 1 kg frame weight</t>
+  </si>
+  <si>
+    <t>EROADE</t>
+  </si>
+  <si>
+    <t>German-engineered, China-built; belt-drive and carbon belt folders pitched as “fast as wind” commuters</t>
+  </si>
+  <si>
+    <t>Tern</t>
+  </si>
+  <si>
+    <t>Taiwan start-up (2011) focusing on micro-mobility; ultra-compact fold and e-folder lines for multi-modal cities</t>
+  </si>
+  <si>
+    <t>GIANT</t>
+  </si>
+  <si>
+    <t>MERIDA</t>
+  </si>
+  <si>
+    <t>TREK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specialized </t>
+  </si>
+  <si>
+    <t>XDS</t>
+  </si>
+  <si>
+    <t>PHOENIX</t>
+  </si>
+  <si>
+    <t>Forever</t>
+  </si>
+  <si>
+    <t>FLYING PIGEON</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BATTLE</t>
+  </si>
+  <si>
+    <t>DECATHLON</t>
+  </si>
+  <si>
+    <t>TRINX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAHON </t>
+  </si>
+  <si>
+    <t>OYAMA</t>
+  </si>
+  <si>
+    <t>Hi, Aspose Cells Cloud Welcomes You!</t>
+  </si>
+  <si>
+    <t>Hi, aspose cells cloud welcomes you!</t>
+  </si>
+  <si>
+    <t>hi, aspose cells cloud welcomes you!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi, Aspose Cells Cloud welcomes you!
+</t>
+  </si>
+  <si>
+    <t>AAB;AAC;AAA;AAB;BBA;BAC;AAC</t>
+  </si>
+  <si>
+    <t>AAB;AAC;AAA;AaB;BBA;BAC;aac</t>
   </si>
 </sst>
 </file>
@@ -450,7 +602,7 @@
     <numFmt numFmtId="166" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="167" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,6 +637,27 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Inherit"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -506,7 +679,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -625,8 +798,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -634,8 +866,9 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -701,14 +934,59 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Comma" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Comma [0]" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Currency" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -716,6 +994,7 @@
     <cellStyle name="Hyperlink" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Percent" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -1240,10 +1519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2036091A-1B06-4FA8-8B01-7CDD0E466B74}">
-  <dimension ref="D4:P12"/>
+  <dimension ref="D4:P19"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1257,56 +1536,373 @@
       </c>
     </row>
     <row r="6" spans="4:16">
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
     </row>
     <row r="7" spans="4:16">
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
     </row>
     <row r="10" spans="4:16">
       <c r="D10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:16">
+    <row r="11" spans="4:16" ht="15" customHeight="1">
       <c r="D11">
         <v>2</v>
       </c>
+      <c r="J11" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
     </row>
     <row r="12" spans="4:16">
       <c r="D12">
         <v>3</v>
       </c>
     </row>
+    <row r="13" spans="4:16">
+      <c r="J13" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+    </row>
+    <row r="14" spans="4:16">
+      <c r="J14" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+    </row>
+    <row r="15" spans="4:16">
+      <c r="J15" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+    </row>
+    <row r="16" spans="4:16">
+      <c r="J16" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="7">
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="J16:P16"/>
     <mergeCell ref="J6:P6"/>
     <mergeCell ref="J7:P7"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="J14:P14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D3A14B-C57D-4640-BC1F-6DDB015F19CC}">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="78.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" thickBot="1">
+      <c r="A2" s="23"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A3" s="24"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="26"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A6" s="27"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1">
+      <c r="B7" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="29.25" thickBot="1">
+      <c r="B8" s="34">
+        <v>1</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="29.25" thickBot="1">
+      <c r="B9" s="34">
+        <v>2</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="29.25" thickBot="1">
+      <c r="B10" s="34">
+        <v>3</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="29.25" thickBot="1">
+      <c r="B11" s="30">
+        <v>4</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30.75" thickBot="1">
+      <c r="B12" s="30">
+        <v>5</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="29.25" thickBot="1">
+      <c r="B13" s="30">
+        <v>6</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="29.25" thickBot="1">
+      <c r="B14" s="34">
+        <v>7</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30.75" thickBot="1">
+      <c r="B15" s="30">
+        <v>8</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="29.25" thickBot="1">
+      <c r="B16" s="34">
+        <v>9</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="29.25" thickBot="1">
+      <c r="B17" s="34">
+        <v>10</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="29.25" thickBot="1">
+      <c r="B18" s="34">
+        <v>11</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="29.25" thickBot="1">
+      <c r="B19" s="34">
+        <v>12</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="29.25" thickBot="1">
+      <c r="B20" s="34">
+        <v>13</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="29.25" thickBot="1">
+      <c r="B21" s="34">
+        <v>14</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="29.25" thickBot="1">
+      <c r="B22" s="34">
+        <v>15</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="28.5">
+      <c r="B23" s="34">
+        <v>16</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="165">
+      <c r="A24" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:D4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D12" r:id="rId1" display="http://www.360doc.com/content/24/0618/14/68688584_1126524051.shtml" xr:uid="{8D947FD2-02B5-43F7-BBC3-7889E7CBAB6E}"/>
+    <hyperlink ref="D15" r:id="rId2" display="https://m.chinabgao.com/top/brand/78492.html" xr:uid="{11329605-FA50-42A2-B2AA-6B7E88696855}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36E46D4-F869-43BB-BCF6-AF7C486C806E}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1441,7 +2037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7700EC40-302C-4CF3-84D8-CC1D43AB38CF}">
   <dimension ref="B2:B9"/>
   <sheetViews>
@@ -1510,7 +2106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D2C4DD6-AAA4-4047-B9C0-2794487807E2}">
   <dimension ref="A1:E46"/>
   <sheetViews>
@@ -2197,7 +2793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0C88BA-98B2-4FD4-8ACD-5DC03F8E0944}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2209,7 +2805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCB97A3-2C26-4389-8789-5602194E36D3}">
   <dimension ref="A2:D44"/>
   <sheetViews>
